--- a/data/trans_orig/IP25B02_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25B02_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF9801D-69DD-45AB-8AB2-B8A5794E9895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC8C905-0417-4BDE-B308-D4DB25B850E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F3CE10F-2D59-46F2-ACD6-CE14CFA13248}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40695BBD-025D-4845-983E-89687038787A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
   <si>
     <t>Menores según el número de horas al día que emplean en utilizar aparatos electrónicos en fines de semana / solo 2023 en 2023 (Tasa respuesta: 98,07%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más de 3h</t>
@@ -74,28 +74,28 @@
     <t>15,28%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>50,89%</t>
+    <t>52,97%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>De 1 a 2h</t>
@@ -134,571 +134,565 @@
     <t>22,76%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
   </si>
   <si>
     <t>20,13%</t>
   </si>
   <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>33,14%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>24,45%</t>
@@ -707,25 +701,22 @@
     <t>21,74%</t>
   </si>
   <si>
-    <t>27,25%</t>
+    <t>27,26%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>33,53%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1140,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE2F1D0-F964-48BB-8ADD-F54F90F12443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA37A97-52AB-43D7-922F-00C11F8E9798}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1653,13 +1644,13 @@
         <v>63106</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,13 +1665,13 @@
         <v>25541</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -1689,13 +1680,13 @@
         <v>32704</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>107</v>
@@ -1704,13 +1695,13 @@
         <v>58245</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,7 +1757,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1778,13 +1769,13 @@
         <v>38955</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -1793,13 +1784,13 @@
         <v>20985</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -1808,13 +1799,13 @@
         <v>59940</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,13 +1820,13 @@
         <v>69766</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>70</v>
@@ -1844,13 +1835,13 @@
         <v>51176</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -1859,13 +1850,13 @@
         <v>120942</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,13 +1871,13 @@
         <v>74708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -1895,13 +1886,13 @@
         <v>53018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -1910,13 +1901,13 @@
         <v>127727</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,13 +1922,13 @@
         <v>64263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -1946,13 +1937,13 @@
         <v>65996</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>211</v>
@@ -1961,13 +1952,13 @@
         <v>130259</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,7 +2014,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2035,13 +2026,13 @@
         <v>39226</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -2050,13 +2041,13 @@
         <v>42424</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>98</v>
@@ -2065,13 +2056,13 @@
         <v>81650</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2077,13 @@
         <v>50379</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -2101,13 +2092,13 @@
         <v>38915</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -2116,13 +2107,13 @@
         <v>89294</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2128,13 @@
         <v>48685</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>60</v>
@@ -2152,13 +2143,13 @@
         <v>44314</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -2167,13 +2158,13 @@
         <v>92999</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2179,13 @@
         <v>30726</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -2203,13 +2194,13 @@
         <v>36847</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -2218,13 +2209,13 @@
         <v>67574</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,7 +2271,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2292,13 +2283,13 @@
         <v>24801</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -2307,13 +2298,13 @@
         <v>18458</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -2322,13 +2313,13 @@
         <v>43260</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2334,13 @@
         <v>47253</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -2358,13 +2349,13 @@
         <v>48127</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>121</v>
@@ -2373,13 +2364,13 @@
         <v>95380</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2385,13 @@
         <v>52776</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>68</v>
@@ -2409,13 +2400,13 @@
         <v>48950</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="M26" s="7">
         <v>140</v>
@@ -2424,13 +2415,13 @@
         <v>101726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2436,13 @@
         <v>49061</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>75</v>
@@ -2460,13 +2451,13 @@
         <v>50454</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>151</v>
@@ -2475,13 +2466,13 @@
         <v>99515</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2540,13 @@
         <v>137058</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>125</v>
@@ -2564,13 +2555,13 @@
         <v>96880</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>278</v>
@@ -2579,10 +2570,10 @@
         <v>233938</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>202</v>
@@ -2681,13 +2672,13 @@
         <v>391658</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2693,13 @@
         <v>175365</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>306</v>
@@ -2717,13 +2708,13 @@
         <v>191586</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>598</v>
@@ -2732,13 +2723,13 @@
         <v>366952</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,7 +2785,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
